--- a/Results/xlsx/Result_IT.xlsx
+++ b/Results/xlsx/Result_IT.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2021-02-26 14:53</t>
+          <t>2021-03-02 19:23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2021-02-26 14:35</t>
+          <t>2021-03-02 19:35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2021-02-26 14:47</t>
+          <t>2021-03-02 19:17</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2021-02-26 14:47</t>
+          <t>2021-03-02 19:17</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2021-02-26 14:34</t>
+          <t>2021-03-02 19:34</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2021-02-26 14:38</t>
+          <t>2021-03-02 18:43</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2021-02-26 14:50</t>
+          <t>2021-03-02 19:20</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2021-02-26 14:47</t>
+          <t>2021-03-02 19:20</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2021-02-26 14:52</t>
+          <t>2021-03-02 19:23</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2021-02-26 14:52</t>
+          <t>2021-03-02 19:20</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
